--- a/app/Fichiers Excel/GroupePR.xlsx
+++ b/app/Fichiers Excel/GroupePR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora7\OneDrive\Desktop\Fichiers Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacin\Desktop\eisgi_app\app\Fichiers Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7224DD12-ED06-4598-8F56-916A536AB936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E72B51-D192-443A-A94E-FB6561EFD555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
   <si>
     <t>1ère année Développement Digital</t>
   </si>
@@ -51,9 +51,6 @@
     <t>2DEVWFS 202</t>
   </si>
   <si>
-    <t>2DEVWFS D2</t>
-  </si>
-  <si>
     <t>2DEVWFS 203</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>groupe_physique</t>
   </si>
 </sst>
 </file>
@@ -495,38 +495,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="46.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="46.44140625" customWidth="1"/>
+    <col min="1" max="2" width="46.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="51.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -537,13 +541,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -554,13 +561,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -571,13 +581,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -588,13 +601,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -605,13 +621,16 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -619,16 +638,19 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -639,13 +661,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -656,13 +681,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -673,13 +701,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -690,13 +721,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -707,13 +741,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -721,16 +758,19 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -741,13 +781,16 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -758,13 +801,16 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -775,13 +821,16 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -792,13 +841,16 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -806,16 +858,19 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -826,13 +881,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -843,13 +901,16 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -860,13 +921,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -877,13 +941,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -894,13 +961,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -911,13 +981,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -928,13 +1001,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -945,47 +1021,56 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>31</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -996,13 +1081,16 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1013,13 +1101,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1030,13 +1121,16 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1047,13 +1141,16 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1064,13 +1161,16 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1081,13 +1181,16 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1098,31 +1201,18 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/Fichiers Excel/GroupePR.xlsx
+++ b/app/Fichiers Excel/GroupePR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacin\Desktop\eisgi_app\app\Fichiers Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora7\OneDrive\Desktop\PF SYN\eisgi_app\app\Fichiers Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E72B51-D192-443A-A94E-FB6561EFD555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99178397-0BFA-438F-8BB4-BB02967485F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="52">
   <si>
     <t>1ère année Développement Digital</t>
   </si>
@@ -57,9 +57,6 @@
     <t>2DEVWFS 204</t>
   </si>
   <si>
-    <t>IDOCS201</t>
-  </si>
-  <si>
     <t>1GE 101</t>
   </si>
   <si>
@@ -172,6 +169,18 @@
   </si>
   <si>
     <t>groupe_physique</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>2IDOCS201</t>
   </si>
 </sst>
 </file>
@@ -497,51 +506,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="46.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="1" max="2" width="46.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="51.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -550,18 +559,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -570,18 +579,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -590,18 +599,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -610,604 +619,604 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
+      <c r="C15" t="s">
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
       </c>
       <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
       </c>
       <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
       </c>
       <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
       </c>
       <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
       </c>
       <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
       </c>
       <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
       <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
       <c r="F25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
       <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
+      <c r="C31" t="s">
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
       <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
       <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
       </c>
       <c r="F33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
